--- a/mobilenet_v1/build-KV260_SOM/partition_0/deploy/driver/results/excel/runtime_metrics_partition_0.xlsx
+++ b/mobilenet_v1/build-KV260_SOM/partition_0/deploy/driver/results/excel/runtime_metrics_partition_0.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,11 +484,6 @@
           <t>unfold_output[ms]</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>runtime_normalized[ms]</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -521,9 +516,6 @@
       <c r="J2" t="n">
         <v>0.06532669067382812</v>
       </c>
-      <c r="K2" t="n">
-        <v>6.442546844482422</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -556,9 +548,6 @@
       <c r="J3" t="n">
         <v>0.07867813110351562</v>
       </c>
-      <c r="K3" t="n">
-        <v>5.034089088439941</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -590,9 +579,6 @@
       </c>
       <c r="J4" t="n">
         <v>0.06580352783203125</v>
-      </c>
-      <c r="K4" t="n">
-        <v>4.894757270812988</v>
       </c>
     </row>
   </sheetData>

--- a/mobilenet_v1/build-KV260_SOM/partition_0/deploy/driver/results/excel/runtime_metrics_partition_0.xlsx
+++ b/mobilenet_v1/build-KV260_SOM/partition_0/deploy/driver/results/excel/runtime_metrics_partition_0.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,45 +441,50 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>runtime[ms]</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>throughput[images/s]</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>DRAM_in_bandwidth[MB/s]</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>DRAM_out_bandwidth[MB/s]</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>fold_input[ms]</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>pack_input[ms]</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>copy_input_data_to_device[ms]</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>copy_output_data_from_device[ms]</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>unpack_output[ms]</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>unfold_output[ms]</t>
         </is>
@@ -490,30 +495,33 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
+        <v>6.442546844482422</v>
+      </c>
+      <c r="C2" t="n">
         <v>155.218118570054</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>23.36467295211309</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>31.15289726948412</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.06890296936035156</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>0.05555152893066406</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>0.4286766052246094</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>0.3094673156738281</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>12273.21171760559</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>0.06532669067382812</v>
       </c>
     </row>
@@ -522,30 +530,33 @@
         <v>10</v>
       </c>
       <c r="B3" t="n">
+        <v>50.34089088439941</v>
+      </c>
+      <c r="C3" t="n">
         <v>198.6456700371782</v>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>29.90173541935637</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
         <v>39.86898055914182</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.1070499420166016</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>0.08106231689453125</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>1.799106597900391</v>
       </c>
-      <c r="H3" t="n">
+      <c r="I3" t="n">
         <v>2.535343170166016</v>
       </c>
-      <c r="I3" t="n">
+      <c r="J3" t="n">
         <v>257295.1803207397</v>
       </c>
-      <c r="J3" t="n">
+      <c r="K3" t="n">
         <v>0.07867813110351562</v>
       </c>
     </row>
@@ -554,30 +565,33 @@
         <v>100</v>
       </c>
       <c r="B4" t="n">
+        <v>489.4757270812988</v>
+      </c>
+      <c r="C4" t="n">
         <v>204.3002225999873</v>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>30.75290390753089</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
         <v>41.00387187670785</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.1173019409179688</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>0.08249282836914062</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>14.51325416564941</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>16.8766975402832</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>17264854.43377495</v>
       </c>
-      <c r="J4" t="n">
+      <c r="K4" t="n">
         <v>0.06580352783203125</v>
       </c>
     </row>

--- a/mobilenet_v1/build-KV260_SOM/partition_0/deploy/driver/results/excel/runtime_metrics_partition_0.xlsx
+++ b/mobilenet_v1/build-KV260_SOM/partition_0/deploy/driver/results/excel/runtime_metrics_partition_0.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -495,103 +495,173 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>6.442546844482422</v>
+        <v>6.456136703491211</v>
       </c>
       <c r="C2" t="n">
-        <v>155.218118570054</v>
+        <v>154.8913918534658</v>
       </c>
       <c r="D2" t="n">
-        <v>23.36467295211309</v>
+        <v>23.3154914329185</v>
       </c>
       <c r="E2" t="n">
-        <v>31.15289726948412</v>
+        <v>31.087321910558</v>
       </c>
       <c r="F2" t="n">
-        <v>0.06890296936035156</v>
+        <v>0.08320808410644531</v>
       </c>
       <c r="G2" t="n">
-        <v>0.05555152893066406</v>
+        <v>0.06937980651855469</v>
       </c>
       <c r="H2" t="n">
-        <v>0.4286766052246094</v>
+        <v>0.45013427734375</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3094673156738281</v>
+        <v>0.2720355987548828</v>
       </c>
       <c r="J2" t="n">
-        <v>12273.21171760559</v>
+        <v>12211.54141426086</v>
       </c>
       <c r="K2" t="n">
-        <v>0.06532669067382812</v>
+        <v>0.0667572021484375</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>50.34089088439941</v>
+        <v>25.94566345214844</v>
       </c>
       <c r="C3" t="n">
-        <v>198.6456700371782</v>
+        <v>192.7104315224583</v>
       </c>
       <c r="D3" t="n">
-        <v>29.90173541935637</v>
+        <v>29.0083158362126</v>
       </c>
       <c r="E3" t="n">
-        <v>39.86898055914182</v>
+        <v>38.67775444828347</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1070499420166016</v>
+        <v>0.1020431518554688</v>
       </c>
       <c r="G3" t="n">
-        <v>0.08106231689453125</v>
+        <v>0.0820159912109375</v>
       </c>
       <c r="H3" t="n">
-        <v>1.799106597900391</v>
+        <v>1.123428344726562</v>
       </c>
       <c r="I3" t="n">
-        <v>2.535343170166016</v>
+        <v>1.504182815551758</v>
       </c>
       <c r="J3" t="n">
-        <v>257295.1803207397</v>
+        <v>80520.37000656128</v>
       </c>
       <c r="K3" t="n">
-        <v>0.07867813110351562</v>
+        <v>0.06842613220214844</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B4" t="n">
+        <v>50.34089088439941</v>
+      </c>
+      <c r="C4" t="n">
+        <v>198.6456700371782</v>
+      </c>
+      <c r="D4" t="n">
+        <v>29.90173541935637</v>
+      </c>
+      <c r="E4" t="n">
+        <v>39.86898055914182</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.1070499420166016</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.08106231689453125</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1.799106597900391</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2.535343170166016</v>
+      </c>
+      <c r="J4" t="n">
+        <v>257295.1803207397</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.07867813110351562</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B5" t="n">
+        <v>123.5213279724121</v>
+      </c>
+      <c r="C5" t="n">
+        <v>202.3941971024116</v>
+      </c>
+      <c r="D5" t="n">
+        <v>30.46599370143181</v>
+      </c>
+      <c r="E5" t="n">
+        <v>40.62132493524241</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.1120567321777344</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.08082389831542969</v>
+      </c>
+      <c r="H5" t="n">
+        <v>3.931760787963867</v>
+      </c>
+      <c r="I5" t="n">
+        <v>5.55109977722168</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1318080.536603928</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.07724761962890625</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B6" t="n">
         <v>489.4757270812988</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C6" t="n">
         <v>204.3002225999873</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D6" t="n">
         <v>30.75290390753089</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E6" t="n">
         <v>41.00387187670785</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F6" t="n">
         <v>0.1173019409179688</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G6" t="n">
         <v>0.08249282836914062</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H6" t="n">
         <v>14.51325416564941</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I6" t="n">
         <v>16.8766975402832</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J6" t="n">
         <v>17264854.43377495</v>
       </c>
-      <c r="K4" t="n">
+      <c r="K6" t="n">
         <v>0.06580352783203125</v>
       </c>
     </row>

--- a/mobilenet_v1/build-KV260_SOM/partition_0/deploy/driver/results/excel/runtime_metrics_partition_0.xlsx
+++ b/mobilenet_v1/build-KV260_SOM/partition_0/deploy/driver/results/excel/runtime_metrics_partition_0.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -632,36 +632,71 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B6" t="n">
+        <v>245.4884052276611</v>
+      </c>
+      <c r="C6" t="n">
+        <v>203.6756072191311</v>
+      </c>
+      <c r="D6" t="n">
+        <v>30.65888180348137</v>
+      </c>
+      <c r="E6" t="n">
+        <v>40.87850907130849</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.1192092895507812</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.08153915405273438</v>
+      </c>
+      <c r="H6" t="n">
+        <v>7.503032684326172</v>
+      </c>
+      <c r="I6" t="n">
+        <v>15.37632942199707</v>
+      </c>
+      <c r="J6" t="n">
+        <v>4763397.129535675</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.08106231689453125</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B7" t="n">
         <v>489.4757270812988</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>204.3002225999873</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>30.75290390753089</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E7" t="n">
         <v>41.00387187670785</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F7" t="n">
         <v>0.1173019409179688</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G7" t="n">
         <v>0.08249282836914062</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H7" t="n">
         <v>14.51325416564941</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I7" t="n">
         <v>16.8766975402832</v>
       </c>
-      <c r="J6" t="n">
+      <c r="J7" t="n">
         <v>17264854.43377495</v>
       </c>
-      <c r="K6" t="n">
+      <c r="K7" t="n">
         <v>0.06580352783203125</v>
       </c>
     </row>
